--- a/doc/ue_memreport.xlsx
+++ b/doc/ue_memreport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531AAD45-1DA2-495C-9B86-B3C28230D85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F15C4F-360E-4B8A-B7C1-84C4AE0B64F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,6 +83,7 @@
   </si>
   <si>
     <t>bool UEngine::HandleMemReportDeferredCommand( const TCHAR* Cmd, FOutputDevice&amp; Ar, UWorld* InWorld )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -528,7 +529,7 @@
   <dimension ref="B5:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/ue_memreport.xlsx
+++ b/doc/ue_memreport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F15C4F-360E-4B8A-B7C1-84C4AE0B64F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225CB2F9-5BAA-4BE1-BC15-392597100A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>else if( FParse::Command( &amp;Cmd, TEXT("MemReport") ) )</t>
   </si>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>bool UEngine::HandleMemReportDeferredCommand( const TCHAR* Cmd, FOutputDevice&amp; Ar, UWorld* InWorld )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!会延迟执行，不是当前最准的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以直接调用这个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,50 +534,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AA445E-CB60-4F1F-A4AC-3CC646F99339}">
-  <dimension ref="B5:C14"/>
+  <dimension ref="B5:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="O8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>1</v>
       </c>

--- a/doc/ue_memreport.xlsx
+++ b/doc/ue_memreport.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225CB2F9-5BAA-4BE1-BC15-392597100A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CB22FD-5B78-44FF-8B4A-2800DF896635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="原理" sheetId="2" r:id="rId2"/>
+    <sheet name="DeferredCommands" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>else if( FParse::Command( &amp;Cmd, TEXT("MemReport") ) )</t>
   </si>
@@ -91,6 +92,41 @@
   </si>
   <si>
     <t>可以直接调用这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEngine-&gt;TickDeferredCommands();</t>
+  </si>
+  <si>
+    <t>FCoreDelegates::OnEndFrame.Broadcast();</t>
+  </si>
+  <si>
+    <t>// Increment global frame counter. Once for each engine tick.</t>
+  </si>
+  <si>
+    <t>GFrameCounter++;</t>
+  </si>
+  <si>
+    <t>ENQUEUE_RENDER_COMMAND(FrameCounter)(</t>
+  </si>
+  <si>
+    <t>[CurrentFrameCounter = GFrameCounter](FRHICommandListImmediate&amp; RHICmdList)</t>
+  </si>
+  <si>
+    <t>GFrameCounterRenderThread = CurrentFrameCounter;</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>当前TICK结束的时候调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UEngine::TickDeferredCommands()</t>
+  </si>
+  <si>
+    <t>处理所有的DeferredCommands</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AA445E-CB60-4F1F-A4AC-3CC646F99339}">
   <dimension ref="B5:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -592,4 +628,80 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EE6CCA-AE7F-4988-8756-5EC188A70246}">
+  <dimension ref="B6:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>